--- a/REP_in_USD.xlsx
+++ b/REP_in_USD.xlsx
@@ -11932,7 +11932,7 @@
         <v>43641</v>
       </c>
       <c r="B502">
-        <v>17.58</v>
+        <v>17.69</v>
       </c>
       <c r="C502">
         <v>18.2</v>
@@ -11944,10 +11944,10 @@
         <v>18.2</v>
       </c>
       <c r="F502">
-        <v>24713.58</v>
+        <v>25773.25</v>
       </c>
       <c r="G502">
-        <v>439745.37</v>
+        <v>458329.49</v>
       </c>
     </row>
   </sheetData>
